--- a/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
+++ b/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkagay\Documents\Chevron 2019\CDB\Database\12_CDB_Releases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkagay\Documents\Chevron 2019\WHT\Database\10_WHT_Releases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Release ID</t>
   </si>
@@ -53,77 +53,14 @@
     <t>UPGCVX No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Release 1.01</t>
-  </si>
-  <si>
-    <t>UPGCVX-1417</t>
-  </si>
-  <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>CDB_Release_1.01\02_Defect_fixes</t>
-  </si>
-  <si>
-    <t>001_UPGCVX-1417_KCKERNEL</t>
-  </si>
-  <si>
-    <t>002_ZP_LOGIN_EVENT</t>
-  </si>
-  <si>
-    <t>003_ZV_LOGIN_EVENT</t>
-  </si>
-  <si>
-    <t>004_zv_audit_login_report</t>
-  </si>
-  <si>
-    <t>CDB_Release_1.01</t>
-  </si>
-  <si>
-    <t>005_DROP_MATERIALIZED_VIEW</t>
-  </si>
-  <si>
-    <t>006_v_trans_config</t>
-  </si>
-  <si>
-    <t>007_Z_CDB_Chem_Inj_Point</t>
-  </si>
-  <si>
-    <t>008_Invalid_Object_Fix</t>
-  </si>
-  <si>
-    <t>UPGCVX-1625</t>
-  </si>
-  <si>
-    <t>UPGCVX-1623</t>
-  </si>
-  <si>
-    <t>009_RV_CT_CONTRACT_CAPACITY</t>
-  </si>
-  <si>
-    <t>010_UPGCVX_1886</t>
-  </si>
-  <si>
-    <t>011_UPGCVX_1888</t>
-  </si>
-  <si>
-    <t>Alok</t>
-  </si>
-  <si>
-    <t>UPGCVX-1886</t>
-  </si>
-  <si>
-    <t>UPGCVX-1888</t>
+    <t>WHT_Release_1.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,21 +72,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,11 +115,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -233,25 +154,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I122"/>
+  <dimension ref="B1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,22 +464,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -602,437 +515,226 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="B13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="13"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="F28" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="13"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D25" s="13"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="13"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D27" s="13"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D29" s="13"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="13"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="13"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="13"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G33" s="10"/>
+      <c r="B33" s="13"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="13"/>
       <c r="D42" s="13"/>
       <c r="H42" s="10"/>
     </row>
@@ -1043,30 +745,29 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="13"/>
       <c r="D45" s="13"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="13"/>
-      <c r="D49" s="13"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
@@ -1080,115 +781,59 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="13"/>
-      <c r="D52" s="13"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="13"/>
-      <c r="D53" s="13"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="H57" s="10"/>
-    </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="H58" s="10"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D59" s="13"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H64" s="10"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="13"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://jira.ec.tieto.com/browse/UPGCVX-1886"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://jira.ec.tieto.com/browse/UPGCVX-1888"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
+++ b/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Release ID</t>
   </si>
@@ -54,6 +54,48 @@
   </si>
   <si>
     <t>WHT_Release_1.01</t>
+  </si>
+  <si>
+    <t>Release 1.01</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>WHT_Release_1.01\02_Defect_fixes</t>
+  </si>
+  <si>
+    <t>001_Missing_Custom_Attributes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>UPGCVX-1916</t>
+  </si>
+  <si>
+    <t>002_UPGCVX_1916</t>
+  </si>
+  <si>
+    <t>UPGCVX-1944</t>
+  </si>
+  <si>
+    <t>003_UPGCVX_1944_UE_CT_GENERATE</t>
+  </si>
+  <si>
+    <t>UPGCVX-1696</t>
+  </si>
+  <si>
+    <t>004_UPGCVX_1696_Demurrage</t>
+  </si>
+  <si>
+    <t>UPGCVX-1915</t>
+  </si>
+  <si>
+    <t>005_UPGCVX-1915</t>
+  </si>
+  <si>
+    <t>099_COMPILE_INVALID_OBJECTS</t>
   </si>
 </sst>
 </file>
@@ -118,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -128,9 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -157,11 +196,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,61 +484,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.26953125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="18.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.26953125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -516,317 +555,397 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="13"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="13"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="13"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D24" s="13"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D25" s="13"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D26" s="13"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D27" s="13"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="13"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D29" s="13"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D30" s="13"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D31" s="13"/>
-      <c r="H31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="H32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="13"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D34" s="13"/>
-      <c r="H34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="H35" s="8"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="H36" s="8"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="H37" s="8"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="H47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D48" s="13"/>
-      <c r="H48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="H50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="H51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H52" s="10"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H53" s="10"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D59" s="13"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F100" s="9"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F101" s="9"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F102" s="9"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F103" s="9"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F104" s="9"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F105" s="9"/>
+      <c r="F105" s="8"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F106" s="9"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F107" s="9"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F108" s="9"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F109" s="9"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F110" s="9"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F111" s="9"/>
+      <c r="F111" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
+++ b/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Release ID</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>099_COMPILE_INVALID_OBJECTS</t>
+  </si>
+  <si>
+    <t>WHT_Release_1.02</t>
+  </si>
+  <si>
+    <t>Release 1.02</t>
+  </si>
+  <si>
+    <t>WHT_Release_1.02\02_Defect_fixes</t>
+  </si>
+  <si>
+    <t>001_UPGCVX-2036</t>
+  </si>
+  <si>
+    <t>002_UPGCVX-2036</t>
+  </si>
+  <si>
+    <t>003_UPGCVX-2036</t>
+  </si>
+  <si>
+    <t>Sarang</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>UPGCVX-2036</t>
   </si>
 </sst>
 </file>
@@ -196,11 +223,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I111"/>
+  <dimension ref="B1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,18 +530,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
@@ -555,141 +582,141 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1"/>
@@ -703,61 +730,159 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
@@ -766,11 +891,11 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D24" s="12"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -802,30 +927,30 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="12"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="12"/>
       <c r="D32" s="12"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="12"/>
       <c r="D34" s="12"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
@@ -835,12 +960,12 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
@@ -883,39 +1008,43 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="12"/>
       <c r="D48" s="12"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="12"/>
+      <c r="D49" s="12"/>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="12"/>
       <c r="D50" s="12"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="12"/>
-      <c r="D51" s="12"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="12"/>
+      <c r="D52" s="12"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D59" s="12"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F101" s="8"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D61" s="12"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F102" s="8"/>
@@ -946,6 +1075,12 @@
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F113" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
+++ b/Database/10_WHT_Releases/WHT_Release_Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkagay\Documents\Chevron 2019\WHT\Database\10_WHT_Releases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BitBucketCode\ec198392_wht\Database\10_WHT_Releases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Release ID</t>
   </si>
@@ -123,13 +123,16 @@
   </si>
   <si>
     <t>UPGCVX-2036</t>
+  </si>
+  <si>
+    <t>004_UPGCVX-2036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +144,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -229,8 +241,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I113"/>
+  <dimension ref="B1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,7 +784,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -792,7 +808,7 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -816,7 +832,7 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -840,46 +856,64 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>31</v>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="12"/>
       <c r="D22" s="12"/>
       <c r="G22" s="9"/>
       <c r="H22" s="7"/>
@@ -888,19 +922,20 @@
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -937,25 +972,25 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D33" s="12"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="12"/>
       <c r="D34" s="12"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
@@ -970,7 +1005,7 @@
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
@@ -1018,15 +1053,15 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="12"/>
       <c r="D50" s="12"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D51" s="12"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="12"/>
-      <c r="D52" s="12"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
@@ -1035,19 +1070,21 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="12"/>
+      <c r="D54" s="12"/>
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H55" s="9"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="14"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="9"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D61" s="12"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F102" s="8"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D62" s="12"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F103" s="8"/>
@@ -1081,13 +1118,20 @@
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14:B16" r:id="rId2" display="UPGCVX-2036"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>